--- a/tables/Blank_criteria.xlsx
+++ b/tables/Blank_criteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FF0A43-5222-4530-BA39-D5D28B1E3143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5F178A-7069-43BD-877A-F5F81499BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="-12465" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Feature</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Multi-photo per element (and # limit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing/Annotating on photo </t>
   </si>
   <si>
     <t>Desktop/laptop</t>
@@ -225,9 +222,6 @@
     <t>X-tern sensors</t>
   </si>
   <si>
-    <t>Constrained choices from an external table</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constrained choices from a list </t>
   </si>
   <si>
@@ -237,16 +231,48 @@
     <t>GPS from device</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Hardware/Operating System </t>
+  </si>
+  <si>
+    <t>Price (Option 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business model </t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Integrate </t>
+      <t xml:space="preserve">iOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -256,23 +282,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>data from bar codes</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware/Operating System </t>
-  </si>
-  <si>
-    <t>Price (Option 1)</t>
-  </si>
-  <si>
-    <t>Price (Option 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business model </t>
-  </si>
-  <si>
-    <t>Technical Support</t>
+      <t>phone and tablet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -295,7 +315,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">iOS </t>
+      <t>Android</t>
     </r>
     <r>
       <rPr>
@@ -327,6 +347,9 @@
     </r>
   </si>
   <si>
+    <t>Yes/No:  app can be used / HW type</t>
+  </si>
+  <si>
     <r>
       <t>-</t>
     </r>
@@ -347,7 +370,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Android</t>
+      <t xml:space="preserve">MacOS </t>
     </r>
     <r>
       <rPr>
@@ -366,7 +389,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>phone and tablet</t>
+      <t>computer</t>
     </r>
     <r>
       <rPr>
@@ -379,20 +402,8 @@
     </r>
   </si>
   <si>
-    <t>Yes/No:  app can be used / HW type</t>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
+    <r>
+      <t xml:space="preserve">-      </t>
     </r>
     <r>
       <rPr>
@@ -402,49 +413,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">MacOS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>computer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Windows 7,8,10, 11</t>
     </r>
   </si>
@@ -458,18 +426,12 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Group Notes/Reviews</t>
   </si>
   <si>
     <t>External Reviews</t>
   </si>
   <si>
-    <t>Score (0-3)</t>
-  </si>
-  <si>
     <t>Cloud-storage</t>
   </si>
   <si>
@@ -480,6 +442,18 @@
   </si>
   <si>
     <t>Intuitive form design tool</t>
+  </si>
+  <si>
+    <t>Constrained choices from an external table or set of rules</t>
+  </si>
+  <si>
+    <t>Integrate data from bar codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing-on/ Annotating photo </t>
+  </si>
+  <si>
+    <t>Price (Option 2)</t>
   </si>
 </sst>
 </file>
@@ -489,16 +463,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -535,14 +501,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,83 +584,68 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,15 +966,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="3" width="32" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" customWidth="1"/>
@@ -1039,222 +982,162 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
+    </row>
+    <row r="7" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
+    <row r="14" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1263,136 +1146,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C0BCC4-86A1-4030-90CE-22D0CC9ADA23}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="58.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1406,80 +1277,85 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1488,22 +1364,23 @@
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1513,73 +1390,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF90FC-7D54-4396-BEBF-836B30C262EA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="1" max="1" width="37.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1590,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C265533-1A49-4A12-B530-D6DEC4C9BC87}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,193 +1475,150 @@
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DAF0C1-5840-4498-93BE-7596EB0B3995}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="25"/>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>